--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Project Manager role</t>
   </si>
   <si>
-    <t xml:space="preserve">Start day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End day</t>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End</t>
   </si>
   <si>
     <t xml:space="preserve">Work</t>
@@ -385,6 +385,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,10 +402,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -774,7 +774,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -824,13 +824,13 @@
       <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="13" t="n">
         <v>45840</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="13" t="n">
         <v>45840</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -856,7 +856,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1006,40 +1006,40 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1150,28 +1150,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1191,8 +1191,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1226,19 +1226,19 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,19 +1246,19 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,19 +1266,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1386,19 +1386,19 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1406,19 +1406,19 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="11" t="n">
+      <c r="F11" s="12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1426,19 +1426,19 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1446,19 +1446,19 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,151 +1466,151 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2184,7 +2184,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2211,39 +2211,39 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
@@ -2648,7 +2648,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3043,7 +3043,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3240,7 +3240,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -20,6 +20,12 @@
     <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -57,162 +63,129 @@
     <t xml:space="preserve">p2.e</t>
   </si>
   <si>
+    <t xml:space="preserve">p2.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4.e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4.m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4.f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024-11-21</t>
   </si>
   <si>
     <t xml:space="preserve">2024-12-04</t>
   </si>
   <si>
-    <t xml:space="preserve">p2.m</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-12-05</t>
   </si>
   <si>
     <t xml:space="preserve">2025-04-02</t>
   </si>
   <si>
-    <t xml:space="preserve">p2.f</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-04-03</t>
   </si>
   <si>
     <t xml:space="preserve">2025-04-30</t>
   </si>
   <si>
-    <t xml:space="preserve">p3.e</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">2024-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">p3.m</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-12-14</t>
   </si>
   <si>
     <t xml:space="preserve">2025-05-30</t>
   </si>
   <si>
-    <t xml:space="preserve">p3.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-31</t>
+    <t xml:space="preserve">2025-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-09</t>
   </si>
   <si>
     <t xml:space="preserve">2025-06-27</t>
   </si>
   <si>
-    <t xml:space="preserve">p4.e</t>
-  </si>
-  <si>
     <t xml:space="preserve">2024-12-16</t>
   </si>
   <si>
     <t xml:space="preserve">2025-01-03</t>
   </si>
   <si>
-    <t xml:space="preserve">p4.m</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-01-04</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-02</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-06-20</t>
   </si>
   <si>
-    <t xml:space="preserve">p4.f</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025-06-21</t>
   </si>
   <si>
     <t xml:space="preserve">2025-07-18</t>
   </si>
   <si>
-    <t xml:space="preserve">Expert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-02</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Jan</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-15</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Feb</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Mar</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-16</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.Apr</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">25.May</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-04-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Period</t>
   </si>
   <si>
@@ -225,40 +198,125 @@
     <t xml:space="preserve">Hours per day</t>
   </si>
   <si>
-    <t xml:space="preserve">dpi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T:end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H:end</t>
-  </si>
-  <si>
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-11-20</t>
+    <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2ca02c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasks per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#d62728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hours per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task's Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barh:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ff7f0e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoicing Periods Workload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:ecolor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:capsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#7BC8F6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#EE0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task with bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:hatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill:alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot:markeredgewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step:linewidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#90EE90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -293,8 +351,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +376,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFD7"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -348,7 +437,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +450,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,7 +462,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,12 +474,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -401,6 +502,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -409,19 +514,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,7 +572,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFFD7D7"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -475,7 +588,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -485,7 +598,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -610,7 +723,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -654,29 +767,29 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>37</v>
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,22 +850,22 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>61</v>
+      <c r="A1" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="3" t="n">
         <v>45651</v>
       </c>
     </row>
@@ -774,67 +887,585 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
+        <v>45856</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="23.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="K1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="I2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>45840</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>45840</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="n">
-        <v>45840</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>71</v>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -855,191 +1486,192 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <v>45630</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="9" t="n">
+        <v>45631</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>45749</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="B4" s="9" t="n">
+        <v>45750</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>45777</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="9" t="n">
+        <v>45627</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>45639</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B6" s="9" t="n">
+        <v>45640</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>45807</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="n">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="B7" s="9" t="n">
+        <v>45808</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>45835</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B8" s="9" t="n">
+        <v>45642</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>45660</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="B9" s="9" t="n">
+        <v>45661</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>45828</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7" t="n">
+      <c r="B10" s="9" t="n">
+        <v>45829</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>45856</v>
+      </c>
+      <c r="D10" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1059,7 +1691,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -1071,17 +1703,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1089,89 +1721,89 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1191,7 +1823,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1199,46 +1831,46 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="n">
+      <c r="C2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="12" t="n">
+      <c r="F2" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1246,19 +1878,19 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12" t="n">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,19 +1898,19 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="12" t="n">
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1286,14 +1918,14 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -1306,14 +1938,14 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>0</v>
@@ -1326,14 +1958,14 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>2</v>
@@ -1346,14 +1978,14 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -1366,14 +1998,14 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
@@ -1386,19 +2018,19 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="12" t="n">
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1406,19 +2038,19 @@
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="12" t="n">
+      <c r="B11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="n">
+      <c r="F11" s="15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1426,19 +2058,19 @@
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="12" t="n">
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1446,19 +2078,19 @@
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="n">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,151 +2098,151 @@
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12" t="n">
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
@@ -1788,7 +2420,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1796,28 +2428,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,67 +2815,67 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>37</v>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
@@ -2647,7 +3279,7 @@
   </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2655,28 +3287,28 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
+      <c r="E1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,184 +3674,184 @@
   </sheetPr>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>37</v>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3239,8 +3871,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3250,82 +3882,82 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B3" s="18" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B4" s="18" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>45732</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="B5" s="18" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>59</v>
+      <c r="B6" s="18" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>45795</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -522,11 +522,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -1142,8 +1142,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1195,7 +1195,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.6</v>
@@ -1395,7 +1396,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -948,7 +948,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,7 +1007,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>64</v>
@@ -1045,8 +1046,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,7 +1105,8 @@
         <v>45617</v>
       </c>
       <c r="F2" s="17" t="n">
-        <v>45840</v>
+        <f aca="false">E2+20</f>
+        <v>45637</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>67</v>
@@ -1142,7 +1144,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1046,7 +1046,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1228,16 +1228,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1254,25 +1254,13 @@
         <v>58</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,28 +1273,14 @@
       <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <v>45840</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="F2" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -767,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,9 +793,18 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
@@ -1230,7 +1239,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3849,7 +3858,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -26,6 +26,7 @@
     <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
     <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
     <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -304,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
   </si>
 </sst>
 </file>
@@ -768,7 +772,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1465,6 +1469,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,28 +5,26 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="task" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="assign" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
-    <sheet name="eimg" sheetId="19" state="visible" r:id="rId21"/>
+    <sheet name="ubday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="ebday" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="period" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -121,25 +119,28 @@
     <t xml:space="preserve">2024-12-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-12-13</t>
+    <t xml:space="preserve">2024-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-08</t>
   </si>
   <si>
     <t xml:space="preserve">2024-12-14</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-27</t>
   </si>
   <si>
     <t xml:space="preserve">2024-12-16</t>
@@ -728,7 +729,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,81 +770,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="C6 H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>19</v>
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A2" s="3" t="n">
+        <v>45616</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
+        <v>45856</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -861,25 +830,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="23.18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>50</v>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>45651</v>
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <f aca="false">E2+20</f>
+        <v>45637</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -898,49 +929,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>51</v>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>45616</v>
-      </c>
       <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="21" t="n">
-        <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C900))</f>
-        <v>45856</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>45617</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <f aca="false">E2+20</f>
+        <v>45637</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="b">
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -958,31 +1027,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -991,19 +1059,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>63</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,20 +1085,14 @@
         <f aca="false">E2+20</f>
         <v>45637</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="24" t="b">
+      <c r="G2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="24" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="b">
+      <c r="I2" s="24" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -1057,51 +1113,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="C6 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,29 +1158,14 @@
       <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
+      <c r="E2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1155,45 +1184,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,23 +1229,14 @@
       <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
+      <c r="E2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1241,39 +1255,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,13 +1312,22 @@
         <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.9</v>
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1312,172 +1346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1488,19 +1360,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,7 +1408,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="C6 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1741,7 +1613,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="C6 J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,8 +1744,8 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2051,10 +1923,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>0</v>
@@ -2071,10 +1943,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="15" t="n">
         <v>0</v>
@@ -2091,10 +1963,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15" t="n">
         <v>3</v>
@@ -2111,10 +1983,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="15" t="n">
         <v>2</v>
@@ -2131,10 +2003,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="15" t="n">
         <v>0</v>
@@ -2151,10 +2023,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="15" t="n">
         <v>0</v>
@@ -2467,381 +2339,450 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -2862,15 +2803,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C6 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
   </cols>
   <sheetData>
@@ -2892,423 +2833,156 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3326,384 +3000,95 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C6 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="18" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>45672</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="18" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>45701</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>45732</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>45761</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="18" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>45795</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3721,186 +3106,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C6 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3918,95 +3198,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="C6 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
+      <c r="A1" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="18" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C2" s="18" t="n">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="18" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C3" s="18" t="n">
-        <v>45701</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="18" t="n">
-        <v>45702</v>
-      </c>
-      <c r="C4" s="18" t="n">
-        <v>45732</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="18" t="n">
-        <v>45733</v>
-      </c>
-      <c r="C5" s="18" t="n">
-        <v>45761</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="18" t="n">
-        <v>45762</v>
-      </c>
-      <c r="C6" s="18" t="n">
-        <v>45795</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A2" s="3" t="n">
+        <v>45651</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -729,7 +729,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C6 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -773,7 +773,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="1" sqref="C6 H24"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -932,7 +932,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1030,7 +1030,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="C6 F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="C6 H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,8 +1348,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C6 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="C6 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,7 +1613,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="C6 J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1744,7 +1744,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2342,7 +2342,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C6 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2806,7 +2806,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C6 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3003,7 +3003,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C6 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,7 +3109,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="C6 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3201,7 +3201,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="C6 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -203,10 +203,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">scip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -729,7 +735,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -770,17 +776,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -793,8 +799,11 @@
       <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,14 +814,17 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="21" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="21" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C900))</f>
         <v>45856</v>
       </c>
-      <c r="G2" s="22"/>
       <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -833,7 +845,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -848,13 +860,13 @@
         <v>53</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -863,19 +875,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,10 +908,10 @@
         <v>45637</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.3</v>
@@ -909,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -932,7 +944,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,16 +955,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -961,19 +973,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +1006,10 @@
         <v>45637</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.3</v>
@@ -1007,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1030,7 +1042,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1041,16 +1053,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -1059,13 +1071,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1093,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1116,7 +1128,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1127,25 +1139,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1171,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0.9</v>
@@ -1187,7 +1199,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1198,25 +1210,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,10 +1242,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>4</v>
@@ -1258,7 +1270,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,34 +1283,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1312,16 +1324,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.5</v>
@@ -1348,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,19 +1372,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1420,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="D1:D2 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,7 +1625,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="D1:D2 J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1745,7 +1757,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2342,7 +2354,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2806,7 +2818,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3003,7 +3015,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,7 +3121,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D1:D2 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3201,7 +3213,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="D1:D2 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -215,6 +216,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -224,6 +228,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -231,12 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -370,7 +374,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,19 +402,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <bgColor rgb="FFFFFFD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
-        <bgColor rgb="FFFFD8CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,7 +543,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,7 +581,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFFFD7D7"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -735,7 +733,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -778,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -842,31 +840,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="10" width="23.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -874,53 +871,36 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
       <c r="E2" s="17" t="n">
+        <f aca="false">misc!A2+1</f>
         <v>45617</v>
       </c>
       <c r="F2" s="17" t="n">
         <f aca="false">E2+20</f>
         <v>45637</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="24" t="b">
+      <c r="G2" s="24" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="24" t="b">
+      <c r="H2" s="24" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
@@ -941,86 +921,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="23.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="4" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1039,74 +975,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="17" t="n">
-        <v>45617</v>
-      </c>
-      <c r="F2" s="17" t="n">
-        <f aca="false">E2+20</f>
-        <v>45637</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="24" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1125,16 +1028,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="D1:D2 H1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,41 +1045,11 @@
         <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="4" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1196,59 +1069,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="4" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1267,79 +1122,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="D2" s="4" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1358,46 +1175,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="4" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1420,7 +1292,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="D1:D2 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1625,7 +1497,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="D1:D2 J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1757,7 +1629,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,7 +2226,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2818,7 +2690,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3015,7 +2887,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3121,7 +2993,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D1:D2 C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3213,7 +3085,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="D1:D2 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
+++ b/ampl-data-input-excel/05-long-term-planning-PM/05-long-term-planning-PM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -213,7 +213,7 @@
     <t xml:space="preserve">scip</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -733,7 +733,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,7 +843,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="D1:D2 E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -924,7 +924,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -978,7 +978,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1250,8 +1250,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="D1:D2 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="D1:D2 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1497,7 +1497,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="1" sqref="D1:D2 J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1629,7 +1629,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="D1:D2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2226,7 +2226,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2690,7 +2690,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="D1:D2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2887,7 +2887,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="1" sqref="D1:D2 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3085,7 +3085,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="D1:D2 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
